--- a/ApplicationTestData/AppData.xlsx
+++ b/ApplicationTestData/AppData.xlsx
@@ -19,12 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="1">
   <si>
     <t>TomBrady_123</t>
-  </si>
-  <si>
-    <t>TomBrady@123</t>
   </si>
 </sst>
 </file>
@@ -414,12 +411,12 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1"/>
+    <hyperlink ref="B1" r:id="rId1" display="TomBrady@123"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ApplicationTestData/AppData.xlsx
+++ b/ApplicationTestData/AppData.xlsx
@@ -19,9 +19,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>TomBrady_123</t>
+  </si>
+  <si>
+    <t>TomBrady@123</t>
   </si>
 </sst>
 </file>
@@ -411,12 +414,12 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1" display="TomBrady@123"/>
+    <hyperlink ref="B1" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
